--- a/ID3_bagging_imputasi_akurasi.xlsx
+++ b/ID3_bagging_imputasi_akurasi.xlsx
@@ -1,37 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Project\Semester 8\Sempro\Sempro 2\Perhitungan\Skripsi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241863D3-18F7-4CFF-A469-67D8C491BC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>k:2</t>
+  </si>
+  <si>
+    <t>k:3</t>
+  </si>
+  <si>
+    <t>k:4</t>
+  </si>
+  <si>
+    <t>k:5</t>
+  </si>
+  <si>
+    <t>k:6</t>
+  </si>
+  <si>
+    <t>k:7</t>
+  </si>
+  <si>
+    <t>k:8</t>
+  </si>
+  <si>
+    <t>k:9</t>
+  </si>
+  <si>
+    <t>k:10</t>
+  </si>
+  <si>
+    <t>k:11</t>
+  </si>
+  <si>
+    <t>k:12</t>
+  </si>
+  <si>
+    <t>k:13</t>
+  </si>
+  <si>
+    <t>k:14</t>
+  </si>
+  <si>
+    <t>k:15</t>
+  </si>
+  <si>
+    <t>fold 1</t>
+  </si>
+  <si>
+    <t>fold 2</t>
+  </si>
+  <si>
+    <t>fold 3</t>
+  </si>
+  <si>
+    <t>fold 4</t>
+  </si>
+  <si>
+    <t>fold 5</t>
+  </si>
+  <si>
+    <t>fold 6</t>
+  </si>
+  <si>
+    <t>fold 7</t>
+  </si>
+  <si>
+    <t>fold 8</t>
+  </si>
+  <si>
+    <t>fold 9</t>
+  </si>
+  <si>
+    <t>fold 10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +156,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,582 +482,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>k:2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>k:3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>k:4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>k:5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>k:6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>k:7</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>k:8</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>k:9</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>k:10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>k:11</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>k:12</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>k:13</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>k:14</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>k:15</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>fold 1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
         <v>68.83</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2">
         <v>70.13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2">
         <v>72.73</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2">
         <v>67.53</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>67.53</v>
       </c>
-      <c r="G2" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="H2" s="2">
         <v>67.53</v>
       </c>
-      <c r="I2" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I2" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J2" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K2" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="L2" s="2">
         <v>72.73</v>
       </c>
-      <c r="M2" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N2" s="2">
         <v>72.73</v>
       </c>
-      <c r="O2" t="n">
-        <v>71.43000000000001</v>
+      <c r="O2" s="2">
+        <v>71.430000000000007</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>fold 2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
         <v>68.83</v>
       </c>
-      <c r="C3" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="D3" s="2">
         <v>67.53</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2">
         <v>74.03</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>68.83</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2">
         <v>72.73</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2">
         <v>72.73</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2">
         <v>74.03</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2">
         <v>68.83</v>
       </c>
-      <c r="K3" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="K3" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="L3" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="M3" s="2">
         <v>72.73</v>
       </c>
-      <c r="N3" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="O3" s="2">
         <v>74.03</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>fold 3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="F4" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="D4" s="2">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="F4" s="2">
         <v>77.63</v>
       </c>
-      <c r="G4" t="n">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" s="2">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="H4" s="2">
         <v>78.95</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2">
         <v>82.89</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2">
         <v>82.89</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2">
         <v>78.95</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="2">
         <v>82.89</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="2">
         <v>78.95</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="2">
         <v>77.63</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="2">
         <v>78.95</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>fold 4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C5" s="2">
         <v>67.53</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>62.34</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>64.94</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>67.53</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>70.13</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2">
         <v>66.23</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2">
         <v>70.13</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2">
         <v>68.83</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2">
         <v>68.83</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="2">
         <v>70.13</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="2">
         <v>67.53</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="2">
         <v>70.13</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="2">
         <v>72.73</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>fold 5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>66.23</v>
       </c>
-      <c r="C6" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="E6" s="2">
         <v>74.03</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>79.22</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>76.62</v>
       </c>
-      <c r="H6" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="I6" s="2">
         <v>74.03</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2">
         <v>76.62</v>
       </c>
-      <c r="K6" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="L6" s="2">
         <v>76.62</v>
       </c>
-      <c r="M6" t="n">
-        <v>81.81999999999999</v>
-      </c>
-      <c r="N6" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="O6" t="n">
-        <v>81.81999999999999</v>
+      <c r="M6" s="2">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="N6" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="O6" s="2">
+        <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>fold 6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
         <v>76.62</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
         <v>74.03</v>
       </c>
-      <c r="D7" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="E7" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="E7" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="F7" s="2">
         <v>74.03</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>68.83</v>
       </c>
-      <c r="H7" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="I7" s="2">
         <v>74.03</v>
       </c>
-      <c r="J7" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="K7" s="2">
         <v>76.62</v>
       </c>
-      <c r="L7" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L7" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="M7" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="N7" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="O7" s="2">
         <v>79.22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>fold 7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
         <v>76.62</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2">
         <v>76.62</v>
       </c>
-      <c r="D8" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="D8" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="E8" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="F8" s="2">
         <v>76.62</v>
       </c>
-      <c r="G8" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="H8" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="G8" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="H8" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="I8" s="2">
         <v>80.52</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2">
         <v>79.22</v>
       </c>
-      <c r="K8" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="L8" s="2">
         <v>79.22</v>
       </c>
-      <c r="M8" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="N8" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M8" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="N8" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="O8" s="2">
         <v>77.92</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>fold 8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="C9" s="2">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="D9" s="2">
         <v>78.95</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2">
         <v>81.58</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>82.89</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>78.95</v>
       </c>
-      <c r="H9" t="n">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="2">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="I9" s="2">
         <v>81.58</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="2">
         <v>81.58</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="2">
         <v>77.63</v>
       </c>
-      <c r="L9" t="n">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" s="2">
+        <v>84.21</v>
+      </c>
+      <c r="M9" s="2">
         <v>81.58</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="2">
         <v>81.58</v>
       </c>
-      <c r="O9" t="n">
-        <v>84.20999999999999</v>
+      <c r="O9" s="2">
+        <v>84.21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>fold 9</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
         <v>72.73</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2">
         <v>68.83</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2">
         <v>79.22</v>
       </c>
-      <c r="E10" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="F10" s="2">
         <v>74.03</v>
       </c>
-      <c r="G10" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="G10" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="H10" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="I10" s="2">
         <v>70.13</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2">
         <v>74.03</v>
       </c>
-      <c r="K10" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="L10" s="2">
         <v>70.13</v>
       </c>
-      <c r="M10" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N10" s="2">
         <v>68.83</v>
       </c>
-      <c r="O10" t="n">
-        <v>71.43000000000001</v>
+      <c r="O10" s="2">
+        <v>71.430000000000007</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>fold 10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="C11" s="2">
         <v>80.52</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>76.62</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>72.73</v>
       </c>
-      <c r="F11" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="F11" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="G11" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="H11" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="I11" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="J11" s="2">
         <v>74.03</v>
       </c>
-      <c r="K11" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="L11" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="K11" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="L11" s="2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="M11" s="2">
         <v>80.52</v>
       </c>
-      <c r="N11" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N11" s="2">
+        <v>77.92</v>
+      </c>
+      <c r="O11" s="2">
         <v>76.62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>